--- a/biology/Botanique/Syagrus_cearensis/Syagrus_cearensis.xlsx
+++ b/biology/Botanique/Syagrus_cearensis/Syagrus_cearensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus cearensis est une espèce de plantes à fleurs de la famille des Arecaceae (palmiers), indigène au Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus cearensis croît dans les états de Piauí, Rio Grande do Norte, Paraíba, Pernambuco et Ceará.  Son abondance dans ce dernier état est à l'origine de son épithète spécifique cearensis.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus cearensis  ressemble à l'espèce voisine Syagrus oleracea, mais a des différences dans la croissance que des touffes et de fruits jaunes, plutôt que d'un seul et même souches fruits verts à maturité[pas clair]. Ses fruits sont des drupes jaunes fibro-mucilagineuses, au goût sucré. 
 </t>
@@ -573,7 +589,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est appelé en portugais coco-babão ou catolé , et dans d'autres langues : drooling-nut en anglais et coco-viscoso en espagnol.
 </t>
